--- a/biology/Médecine/Jules_Béhier/Jules_Béhier.xlsx
+++ b/biology/Médecine/Jules_Béhier/Jules_Béhier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules_B%C3%A9hier</t>
+          <t>Jules_Béhier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Louis Félix Béhier, né le 26 août 1813 et mort le 7 mai 1876 à Paris, est un médecin français, professeur de clinique médicale à l'Hôtel-Dieu de Paris, membre de l'Académie de médecine et de la Société anatomique de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules_B%C3%A9hier</t>
+          <t>Jules_Béhier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Félix Jules Béhier commence ses études en tant qu'externe en médecine en 1833 puis interne en 1834. Il obtient son doctorat en 1873 avec pour thèse Recherches sur quelques points de pathologie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Félix Jules Béhier commence ses études en tant qu'externe en médecine en 1833 puis interne en 1834. Il obtient son doctorat en 1873 avec pour thèse Recherches sur quelques points de pathologie.
 Professeur à l'Hôtel-Dieu de Paris, il a une réputation d'enseignant brillant. Il est le médecin personnel du roi Louis-Philippe Ier.
-Il est enterré au Cimetière du Père-Lachaise[2],[3].
-Il est le fondateur du premier laboratoire d'anatomie pathologie de l'Hôtel-Dieu avec son collègue Richet de clinique chirurgicale[4],[1]
-Il est connu pour avoir introduit en France une méthode anglaise de traitement de la pneumonie par l'alcool et de traitement de la fièvre typhoïde par l'eau froide. Il fera également connaître les travaux de Rosenstein, Niemeyer et Traube[2].
+Il est enterré au Cimetière du Père-Lachaise,.
+Il est le fondateur du premier laboratoire d'anatomie pathologie de l'Hôtel-Dieu avec son collègue Richet de clinique chirurgicale,
+Il est connu pour avoir introduit en France une méthode anglaise de traitement de la pneumonie par l'alcool et de traitement de la fièvre typhoïde par l'eau froide. Il fera également connaître les travaux de Rosenstein, Niemeyer et Traube.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jules_B%C3%A9hier</t>
+          <t>Jules_Béhier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Recherches cliniques sur quelques points de pathologie, [Thèse de Médecine, Paris, 1837], Impr. Rignoux, 1837.
 Études sur la maladie dite fièvre puerpérale, [lettres adressées à Monsieur le professeur Trousseau], aux bureaux de l'"Union médicale" (Paris), 1858, In-8° , 204 p., lire en ligne sur Gallica.
